--- a/SOLID_Project_1/GeneratedFiles/Flights-112345.xlsx
+++ b/SOLID_Project_1/GeneratedFiles/Flights-112345.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hectormontano/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hectormontano/IdeaProjects/CSF_Proj1/SOLID_Project_1/GeneratedFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D164C30B-1582-B14F-91B3-7EF29F9DFD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962A2D20-1384-0A47-8835-550BC2DCFED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15840" xr2:uid="{CCFF2FF2-7F31-6A43-978B-0860663B69B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Flight Number</t>
   </si>
@@ -36,47 +36,125 @@
     <t>Aircraft type</t>
   </si>
   <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>Arrival</t>
-  </si>
-  <si>
     <t>AB0023</t>
   </si>
   <si>
     <t>AVIANCA</t>
   </si>
   <si>
-    <t>MMMM</t>
-  </si>
-  <si>
     <t>MIAMI</t>
   </si>
   <si>
     <t>EL SALVADOR</t>
   </si>
   <si>
-    <t>Monday, may 20, 2021 09:30:10</t>
-  </si>
-  <si>
-    <t>Monday, may 20, 2021 18:23:00</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Incidents</t>
+  </si>
+  <si>
+    <t>CANCELED</t>
+  </si>
+  <si>
+    <t>SEVERE STORM</t>
+  </si>
+  <si>
+    <t>300F</t>
+  </si>
+  <si>
+    <t>Origin Country</t>
+  </si>
+  <si>
+    <t>Origin City</t>
+  </si>
+  <si>
+    <t>Destination Country</t>
+  </si>
+  <si>
+    <t>Destination City</t>
+  </si>
+  <si>
+    <t>Departure date</t>
+  </si>
+  <si>
+    <t>Departure time</t>
+  </si>
+  <si>
+    <t>Arrival date</t>
+  </si>
+  <si>
+    <t>Arrival time</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>09:00:01</t>
+  </si>
+  <si>
+    <t>09:00:02</t>
+  </si>
+  <si>
+    <t>09:00:03</t>
+  </si>
+  <si>
+    <t>10:02:00</t>
+  </si>
+  <si>
+    <t>10:02:01</t>
+  </si>
+  <si>
+    <t>10:02:02</t>
+  </si>
+  <si>
+    <t>10:02:03</t>
+  </si>
+  <si>
+    <t>10/02/2021</t>
+  </si>
+  <si>
+    <t>10/02/2022</t>
+  </si>
+  <si>
+    <t>10/02/2023</t>
+  </si>
+  <si>
+    <t>10/02/2024</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>03/05/2019</t>
+  </si>
+  <si>
+    <t>03/05/2020</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,68 +497,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470B57A0-0D25-4646-9F3C-03DAC33B2F84}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>